--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{727D08A6-911C-4C91-AC16-62AC1F2F00C1}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EACAC16-A314-4083-AF4C-45E22E89EF46}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -63,28 +63,28 @@
     <t>sex</t>
   </si>
   <si>
-    <t xml:space="preserve">There is no such number. Enter it again: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the desired case and enter its number: </t>
-  </si>
-  <si>
     <t>The case is related to</t>
   </si>
   <si>
     <t>class</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. Student: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have chosen a number </t>
+    <t>You have chosen a number</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>There is no such number. Enter it again</t>
+  </si>
+  <si>
+    <t>Select the desired case and enter its number</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>М</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,10 +485,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,10 +507,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EACAC16-A314-4083-AF4C-45E22E89EF46}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BC45E5-9053-444D-850C-F04D348681DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>variable</t>
   </si>
@@ -85,15 +85,77 @@
   </si>
   <si>
     <t>М</t>
+  </si>
+  <si>
+    <t>Number of incidents from the number of all students</t>
+  </si>
+  <si>
+    <t>graph_1</t>
+  </si>
+  <si>
+    <t>support_modes</t>
+  </si>
+  <si>
+    <t>The program supports several modes of operation</t>
+  </si>
+  <si>
+    <t>select_mode</t>
+  </si>
+  <si>
+    <t>Select a mode</t>
+  </si>
+  <si>
+    <t>causal_relationship</t>
+  </si>
+  <si>
+    <t>Causal relationship</t>
+  </si>
+  <si>
+    <t>Graphs of incidents</t>
+  </si>
+  <si>
+    <t>incidents_graphs</t>
+  </si>
+  <si>
+    <t>choose_a_graph</t>
+  </si>
+  <si>
+    <t>Choose a graph</t>
+  </si>
+  <si>
+    <t>Select a number</t>
+  </si>
+  <si>
+    <t>select_a_number</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>Causes</t>
+  </si>
+  <si>
+    <t>all_students</t>
+  </si>
+  <si>
+    <t>All students</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -121,8 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,69 +517,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BC45E5-9053-444D-850C-F04D348681DA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4CC0ED-680C-4817-A100-9071579A8482}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>All students</t>
+  </si>
+  <si>
+    <t>restart_program</t>
+  </si>
+  <si>
+    <t>Restart the program</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,6 +678,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4CC0ED-680C-4817-A100-9071579A8482}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCAFA454-D49C-43DD-8756-37FBE81AB5DC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>variable</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Restart the program</t>
+  </si>
+  <si>
+    <t>Casual relationships in school, ver</t>
+  </si>
+  <si>
+    <t>start_text</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,6 +692,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCAFA454-D49C-43DD-8756-37FBE81AB5DC}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83486BC8-36AD-4A63-A4D8-14485237F324}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="2832" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,6 @@
     <t>Select the desired case and enter its number</t>
   </si>
   <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
     <t>Number of incidents from the number of all students</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>start_text</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,113 +591,113 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83486BC8-36AD-4A63-A4D8-14485237F324}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07194E6A-D718-42BA-BED0-5485FDED54DB}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>variable</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>all_causes</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>graph_2</t>
+  </si>
+  <si>
+    <t>Total incidents</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>The dependence of incidents on the parallel</t>
   </si>
 </sst>
 </file>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,6 +718,30 @@
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07194E6A-D718-42BA-BED0-5485FDED54DB}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43AC104-15E7-49A7-BBC3-BB051734E1B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>variable</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>The dependence of incidents on the parallel</t>
+  </si>
+  <si>
+    <t>graph_3</t>
+  </si>
+  <si>
+    <t>Correlation graph</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,6 +748,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43AC104-15E7-49A7-BBC3-BB051734E1B9}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E491581-282B-47C5-987E-29ADA9FFEF2E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>variable</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>Correlation graph</t>
+  </si>
+  <si>
+    <t>lang_choice</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>Language change</t>
+  </si>
+  <si>
+    <t>Exit</t>
   </si>
 </sst>
 </file>
@@ -539,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,6 +768,22 @@
         <v>46</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E491581-282B-47C5-987E-29ADA9FFEF2E}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55EB382A-20FB-446C-97EE-C07DF313E206}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>variable</t>
   </si>
@@ -187,6 +187,69 @@
   </si>
   <si>
     <t>Exit</t>
+  </si>
+  <si>
+    <t>cause_1</t>
+  </si>
+  <si>
+    <t>is_fight</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t>all_participants</t>
+  </si>
+  <si>
+    <t>cause_2</t>
+  </si>
+  <si>
+    <t>students_in_incident</t>
+  </si>
+  <si>
+    <t>personal_cause</t>
+  </si>
+  <si>
+    <t>about_personal_cause</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>Participated in a fight</t>
+  </si>
+  <si>
+    <t>with whom it was</t>
+  </si>
+  <si>
+    <t>incidents</t>
+  </si>
+  <si>
+    <t>in the classroom</t>
+  </si>
+  <si>
+    <t>In total , the fight involved</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>The incident involved</t>
+  </si>
+  <si>
+    <t>Personal case</t>
+  </si>
+  <si>
+    <t>Something happened to the student</t>
+  </si>
+  <si>
+    <t>There are no links with other cases</t>
   </si>
 </sst>
 </file>
@@ -551,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -728,7 +791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -736,7 +799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -744,7 +807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -752,7 +815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -760,7 +823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -768,7 +831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -776,12 +839,97 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55EB382A-20FB-446C-97EE-C07DF313E206}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4033A62B-F237-4822-A07E-C73D33BDA128}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>variable</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>There are no links with other cases</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>back_button</t>
   </si>
 </sst>
 </file>
@@ -614,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,6 +938,14 @@
         <v>71</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4033A62B-F237-4822-A07E-C73D33BDA128}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0B0D2F-A9F2-4881-9306-28664F67BEAD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>variable</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>back_button</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,6 +952,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0B0D2F-A9F2-4881-9306-28664F67BEAD}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D07A513-0BCF-4E40-968C-F1C1EBE27933}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>variable</t>
   </si>
@@ -262,6 +262,69 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>dataset_settings</t>
+  </si>
+  <si>
+    <t>column_number_in_dataset</t>
+  </si>
+  <si>
+    <t>current_dataset</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Dataset settings</t>
+  </si>
+  <si>
+    <t>Column numbers in dataset</t>
+  </si>
+  <si>
+    <t>Current dataset</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>time_causes</t>
+  </si>
+  <si>
+    <t>previous_causes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>Time of the incident</t>
+  </si>
+  <si>
+    <t>Number of previous incidents</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>broken_dataset</t>
+  </si>
+  <si>
+    <t>Broken dataset</t>
   </si>
 </sst>
 </file>
@@ -626,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,6 +1023,94 @@
         <v>75</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D07A513-0BCF-4E40-968C-F1C1EBE27933}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E099E0DD-31A2-4650-8FE0-10879E32D615}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>variable</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Restart the program</t>
   </si>
   <si>
-    <t>Casual relationships in school, ver</t>
-  </si>
-  <si>
     <t>start_text</t>
   </si>
   <si>
@@ -325,6 +322,33 @@
   </si>
   <si>
     <t>Broken dataset</t>
+  </si>
+  <si>
+    <t>about_program</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>About the program</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>Casual relationships in school</t>
   </si>
 </sst>
 </file>
@@ -689,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -868,199 +892,199 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,47 +1092,79 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E099E0DD-31A2-4650-8FE0-10879E32D615}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8ECD2BE-B5EE-4CF1-9A46-C80C1D57B80C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
   <si>
     <t>variable</t>
   </si>
@@ -349,6 +349,60 @@
   </si>
   <si>
     <t>Casual relationships in school</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>invalid_path_dataset</t>
+  </si>
+  <si>
+    <t>The dataset is not defined. Please select a dataset and its characteristics.</t>
+  </si>
+  <si>
+    <t>invalid_parameters_values</t>
+  </si>
+  <si>
+    <t>The dataset characteristics is invalid. Please select a dataset characteristics.</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>successfully_applied</t>
+  </si>
+  <si>
+    <t>Successfully applied</t>
+  </si>
+  <si>
+    <t>Incorrect column values</t>
+  </si>
+  <si>
+    <t>Incorrect column values or incorrect dataset</t>
+  </si>
+  <si>
+    <t>Incorrect_column_values</t>
+  </si>
+  <si>
+    <t>Incorrect_column_values_or_dataset</t>
+  </si>
+  <si>
+    <t>undefined_dataset</t>
+  </si>
+  <si>
+    <t>Undefined dataset</t>
   </si>
 </sst>
 </file>
@@ -713,15 +767,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
   </cols>
@@ -1167,6 +1221,78 @@
         <v>103</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8ECD2BE-B5EE-4CF1-9A46-C80C1D57B80C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B4F78F-45FE-476F-8AD0-76C43AF72F3F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>variable</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>Undefined dataset</t>
+  </si>
+  <si>
+    <t>graph_boxplot</t>
+  </si>
+  <si>
+    <t>Box plot</t>
   </si>
 </sst>
 </file>
@@ -767,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,6 +1299,14 @@
         <v>122</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B4F78F-45FE-476F-8AD0-76C43AF72F3F}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B89FF86-9AE5-49F8-8773-4CF75B918C90}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Number of incidents from the number of all students</t>
   </si>
   <si>
-    <t>graph_1</t>
-  </si>
-  <si>
     <t>support_modes</t>
   </si>
   <si>
@@ -105,18 +102,6 @@
     <t>Causal relationship</t>
   </si>
   <si>
-    <t>Graphs of incidents</t>
-  </si>
-  <si>
-    <t>incidents_graphs</t>
-  </si>
-  <si>
-    <t>choose_a_graph</t>
-  </si>
-  <si>
-    <t>Choose a graph</t>
-  </si>
-  <si>
     <t>Select a number</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>parallel</t>
   </si>
   <si>
-    <t>graph_2</t>
-  </si>
-  <si>
     <t>Total incidents</t>
   </si>
   <si>
@@ -168,12 +150,6 @@
     <t>The dependence of incidents on the parallel</t>
   </si>
   <si>
-    <t>graph_3</t>
-  </si>
-  <si>
-    <t>Correlation graph</t>
-  </si>
-  <si>
     <t>lang_choice</t>
   </si>
   <si>
@@ -405,10 +381,34 @@
     <t>Undefined dataset</t>
   </si>
   <si>
-    <t>graph_boxplot</t>
-  </si>
-  <si>
     <t>Box plot</t>
+  </si>
+  <si>
+    <t>chart_boxplot</t>
+  </si>
+  <si>
+    <t>Correlation chart</t>
+  </si>
+  <si>
+    <t>chart_3</t>
+  </si>
+  <si>
+    <t>chart_2</t>
+  </si>
+  <si>
+    <t>chart_1</t>
+  </si>
+  <si>
+    <t>Choose a chart</t>
+  </si>
+  <si>
+    <t>Chart of incidents</t>
+  </si>
+  <si>
+    <t>choose_a_chart</t>
+  </si>
+  <si>
+    <t>incidents_chart</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,16 +849,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -868,283 +868,283 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1152,159 +1152,159 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B89FF86-9AE5-49F8-8773-4CF75B918C90}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457E1CBD-B8DC-4DD1-AAFB-6E8D24A1EEC6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>variable</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>incidents_chart</t>
+  </si>
+  <si>
+    <t>selected</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,6 +1310,14 @@
         <v>115</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457E1CBD-B8DC-4DD1-AAFB-6E8D24A1EEC6}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE162BE-736A-4660-B6EE-39E06D0B221B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>variable</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>selected</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -776,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,6 +1324,14 @@
         <v>125</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE162BE-736A-4660-B6EE-39E06D0B221B}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71834EE-430C-4023-B891-EF4ABF5BB706}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>variable</t>
   </si>
@@ -418,6 +418,24 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>dataset_location</t>
+  </si>
+  <si>
+    <t>Dataset location</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Column</t>
   </si>
 </sst>
 </file>
@@ -782,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,6 +1350,30 @@
         <v>127</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71834EE-430C-4023-B891-EF4ABF5BB706}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6178E619-D88D-4611-943B-68BD295AE198}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>variable</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Column</t>
+  </si>
+  <si>
+    <t>dataset_not_defined</t>
+  </si>
+  <si>
+    <t>Dataset is not defined</t>
   </si>
 </sst>
 </file>
@@ -800,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,6 +1380,14 @@
         <v>133</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6178E619-D88D-4611-943B-68BD295AE198}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14560BA4-8980-477F-A948-8DE85E6677B8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>variable</t>
   </si>
@@ -442,6 +442,39 @@
   </si>
   <si>
     <t>Dataset is not defined</t>
+  </si>
+  <si>
+    <t>incident_in_class</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Incident in the classroom</t>
+  </si>
+  <si>
+    <t>Student information</t>
+  </si>
+  <si>
+    <t>Information about the incident</t>
+  </si>
+  <si>
+    <t>info_about_student</t>
+  </si>
+  <si>
+    <t>info_about_incident</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -806,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,6 +1421,54 @@
         <v>135</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14560BA4-8980-477F-A948-8DE85E6677B8}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2586030E-487A-4C18-A2CF-BEB77CB3409F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>variable</t>
   </si>
@@ -475,6 +475,36 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>latest_update_already_installed</t>
+  </si>
+  <si>
+    <t>update_available</t>
+  </si>
+  <si>
+    <t>check_update_error</t>
+  </si>
+  <si>
+    <t>update_available_text</t>
+  </si>
+  <si>
+    <t>updates</t>
+  </si>
+  <si>
+    <t>The latest update is already installed!</t>
+  </si>
+  <si>
+    <t>Update available</t>
+  </si>
+  <si>
+    <t>Update check error.</t>
+  </si>
+  <si>
+    <t>An update is available! Download the updated version from</t>
+  </si>
+  <si>
+    <t>Updates</t>
   </si>
 </sst>
 </file>
@@ -839,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,6 +1499,46 @@
         <v>146</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
